--- a/data/trans_bre/BARTHEL_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R3-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.56656053397846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17.16619930892238</v>
+        <v>17.16619930892237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4276576485831453</v>
@@ -649,7 +649,7 @@
         <v>0.581364670257569</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5714610344220162</v>
+        <v>0.5714610344220158</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.284738970890551</v>
+        <v>1.446428997097568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.291853682988225</v>
+        <v>5.086428432569214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.71414056743523</v>
+        <v>6.54851247634392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.65283211656846</v>
+        <v>11.5807571036213</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07082602561621805</v>
+        <v>0.08153784627477458</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1909150704448067</v>
+        <v>0.1970600806696179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.29271733615319</v>
+        <v>0.2719055133210997</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3369146284970543</v>
+        <v>0.3447194685560486</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.79884462293583</v>
+        <v>11.61515082015513</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.01931662179191</v>
+        <v>16.83048100893406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.12235757862235</v>
+        <v>18.04508968306727</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.30301462149632</v>
+        <v>22.58851912588399</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8797693404268712</v>
+        <v>0.9374206593330117</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9186407334496853</v>
+        <v>0.9107760388990213</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9852807602924152</v>
+        <v>0.9912616153946813</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8502589854698898</v>
+        <v>0.8690897887673394</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>14.2555277532364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.866677678413006</v>
+        <v>7.866677678413001</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5957562237062307</v>
@@ -749,7 +749,7 @@
         <v>1.501773036447555</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4889381779388804</v>
+        <v>0.4889381779388799</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.973107635680697</v>
+        <v>-4.207875438046756</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.884080916393242</v>
+        <v>-1.862798581615865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.721648843134187</v>
+        <v>6.870943892704583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.621236942660785</v>
+        <v>2.861990297226785</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5532255579495426</v>
+        <v>-0.4774301271881358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1638162455720671</v>
+        <v>-0.1329658074097419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4472212266331836</v>
+        <v>0.5337912245362765</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1347347937761378</v>
+        <v>0.1397314063218907</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.73938356543312</v>
+        <v>15.76153036664114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.60174408938517</v>
+        <v>19.26735489303894</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22.68208145735794</v>
+        <v>23.01307670421654</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.14600377771118</v>
+        <v>13.18266890704181</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.501120831579777</v>
+        <v>3.494784758371519</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.604040050138286</v>
+        <v>2.598181655172239</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.187015937801835</v>
+        <v>3.480730339952821</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9707156384117936</v>
+        <v>0.9190494742585166</v>
       </c>
     </row>
     <row r="10">
@@ -860,26 +860,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.50892504603659</v>
+        <v>-9.265313462926928</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.124849353454776</v>
+        <v>-7.588524021368584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.93488130734586</v>
+        <v>-13.65514570637947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.276323804239327</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-0.9184429194318348</v>
-      </c>
+        <v>-3.615595345307648</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.7632460948878063</v>
+        <v>-0.7331372109631256</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2056624343320762</v>
+        <v>-0.2299485482631199</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +888,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.50155841312796</v>
+        <v>23.52864483401289</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>38.15550812780216</v>
+        <v>35.83132122959016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24.2551103217716</v>
+        <v>24.57910987037462</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.56840758931518</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>12.50640381278573</v>
-      </c>
+        <v>12.52988431965796</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>3.596633527052792</v>
+        <v>3.866246190302539</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.61217270857519</v>
+        <v>1.330814382887129</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.450306998822487</v>
+        <v>3.241163022013057</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.022479590355574</v>
+        <v>7.379237781847451</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.374327567996842</v>
+        <v>8.822236330639084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12.80871473709043</v>
+        <v>12.87314759761969</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.151911289320539</v>
+        <v>0.207879018853291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3326404582745296</v>
+        <v>0.3413329637811789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4922695733224484</v>
+        <v>0.4566457186326051</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5468297106649349</v>
+        <v>0.547733636682298</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.25971492385305</v>
+        <v>11.62938117367496</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.37098266970701</v>
+        <v>17.37480887144692</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.62842328285704</v>
+        <v>18.27969899149333</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19.40134984105891</v>
+        <v>19.48492064160406</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9949857365169597</v>
+        <v>1.061146935349448</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.1010432821875</v>
+        <v>1.069630815034078</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.241146532581964</v>
+        <v>1.188816883278962</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.007575674647935</v>
+        <v>1.019495941080766</v>
       </c>
     </row>
     <row r="16">
